--- a/ctl_regs.xlsx
+++ b/ctl_regs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unice-my.sharepoint.com/personal/tom_niget_etu_unice_fr/Documents/S5/archi/SI3_ARCHI_PARM_Project/SI3_ARCHI_PARM_Project/logisim_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\parmesan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70FCC55A-5E2A-4944-BA20-D12319B56192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6481F3D4-A952-4BE4-BB44-37DB58EB30F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{E64C1831-675A-4577-920D-AFEFAEE29CCD}"/>
+    <workbookView xWindow="6150" yWindow="3840" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E64C1831-675A-4577-920D-AFEFAEE29CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="100">
   <si>
     <t>A</t>
   </si>
@@ -313,6 +313,27 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>00101rd_imm8____</t>
+  </si>
+  <si>
+    <t>00110rd_imm8____</t>
+  </si>
+  <si>
+    <t>00111rd_imm8____</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>1010=10</t>
   </si>
 </sst>
 </file>
@@ -933,10 +954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D1ECB9-B187-45F5-8832-6EE13C39AEAD}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,95 +1699,140 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>86</v>
+      <c r="H28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35">
-        <v>1</v>
+      <c r="C35" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,13 +1840,13 @@
         <v>63</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1791,103 +1857,100 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <f>B39+2</f>
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f>B42+2</f>
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40:C45" si="0">B40+2</f>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:C48" si="0">B43+2</f>
         <v>3</v>
       </c>
-      <c r="D40">
+      <c r="D43">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B41">
+      <c r="B44">
         <v>2</v>
       </c>
-      <c r="C41">
+      <c r="C44">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D41">
+      <c r="D44">
         <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1902,6 +1965,51 @@
         <v>5</v>
       </c>
       <c r="D45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D48">
         <v>6</v>
       </c>
     </row>
@@ -1912,6 +2020,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000734CA2468E2DF4E847940910259E9E5" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="98f44591a14ac84ff91c5dacbbf1f9fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7428af41-3a44-4b8d-b4db-573a8f77ebb5" xmlns:ns4="7a3e1dd9-c5ad-456c-ac81-7cd04f185eab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac3792a6c2590559c5e9612b17f3ea12" ns3:_="" ns4:_="">
     <xsd:import namespace="7428af41-3a44-4b8d-b4db-573a8f77ebb5"/>
@@ -2128,22 +2251,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46A8E111-D9E1-4863-900D-B3AE6DDF8671}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0BEEF8-9FDA-4E18-B46B-CACF2F096877}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3FA8399-6D49-4D26-AC7E-6A87914E52C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2160,21 +2285,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0BEEF8-9FDA-4E18-B46B-CACF2F096877}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46A8E111-D9E1-4863-900D-B3AE6DDF8671}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ctl_regs.xlsx
+++ b/ctl_regs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\parmesan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\parmesan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6481F3D4-A952-4BE4-BB44-37DB58EB30F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DE5DCFD-DB43-4857-B361-170E856194E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="3840" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E64C1831-675A-4577-920D-AFEFAEE29CCD}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{E64C1831-675A-4577-920D-AFEFAEE29CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="96">
   <si>
     <t>A</t>
   </si>
@@ -322,18 +322,6 @@
   </si>
   <si>
     <t>00111rd_imm8____</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>1010=10</t>
   </si>
 </sst>
 </file>
@@ -956,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D1ECB9-B187-45F5-8832-6EE13C39AEAD}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,13 +1695,15 @@
         <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
         <v>48</v>
@@ -1736,13 +1726,15 @@
         <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
         <v>48</v>
@@ -1765,13 +1757,15 @@
         <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
         <v>48</v>
@@ -2020,21 +2014,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000734CA2468E2DF4E847940910259E9E5" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="98f44591a14ac84ff91c5dacbbf1f9fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7428af41-3a44-4b8d-b4db-573a8f77ebb5" xmlns:ns4="7a3e1dd9-c5ad-456c-ac81-7cd04f185eab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac3792a6c2590559c5e9612b17f3ea12" ns3:_="" ns4:_="">
     <xsd:import namespace="7428af41-3a44-4b8d-b4db-573a8f77ebb5"/>
@@ -2251,24 +2230,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46A8E111-D9E1-4863-900D-B3AE6DDF8671}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0BEEF8-9FDA-4E18-B46B-CACF2F096877}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3FA8399-6D49-4D26-AC7E-6A87914E52C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2285,4 +2262,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46A8E111-D9E1-4863-900D-B3AE6DDF8671}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7a3e1dd9-c5ad-456c-ac81-7cd04f185eab"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7428af41-3a44-4b8d-b4db-573a8f77ebb5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0BEEF8-9FDA-4E18-B46B-CACF2F096877}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>